--- a/LA_PM/04_Output_12_NguyenThiMinhHang/03_BaiTapCuoiKhoa/ManageUser/Implement/Review code.xlsx
+++ b/LA_PM/04_Output_12_NguyenThiMinhHang/03_BaiTapCuoiKhoa/ManageUser/Implement/Review code.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\INFORMATION TECHNOLOGY\LUVINA\Other File\MyDocuments_xx18\LA_PM\04_Output_12_NguyenThiMinhHang\03_BaiTapCuoiKhoa\ManageUser\Implement\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="21015" windowHeight="9975"/>
   </bookViews>
@@ -27,9 +32,6 @@
     <t>State</t>
   </si>
   <si>
-    <t>annotation</t>
-  </si>
-  <si>
     <t>private static final long serialVersionUID = 1L;</t>
   </si>
   <si>
@@ -61,13 +63,16 @@
   </si>
   <si>
     <t>web security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">annotation   </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,8 +143,44 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -186,7 +227,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -218,9 +259,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -252,6 +294,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -427,21 +470,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" ht="15.75">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,143 +495,143 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" ht="45.75" customHeight="1">
+    <row r="14" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -602,24 +645,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LA_PM/04_Output_12_NguyenThiMinhHang/03_BaiTapCuoiKhoa/ManageUser/Implement/Review code.xlsx
+++ b/LA_PM/04_Output_12_NguyenThiMinhHang/03_BaiTapCuoiKhoa/ManageUser/Implement/Review code.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\INFORMATION TECHNOLOGY\LUVINA\Other File\MyDocuments_xx18\LA_PM\04_Output_12_NguyenThiMinhHang\03_BaiTapCuoiKhoa\ManageUser\Implement\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="21015" windowHeight="9975"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>STT</t>
   </si>
@@ -61,13 +66,97 @@
   </si>
   <si>
     <t>web security</t>
+  </si>
+  <si>
+    <t>Follow</t>
+  </si>
+  <si>
+    <t>Chức năng</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>List user</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Sort</t>
+  </si>
+  <si>
+    <t>Paging</t>
+  </si>
+  <si>
+    <t>Add user</t>
+  </si>
+  <si>
+    <t>Edit user</t>
+  </si>
+  <si>
+    <t>Delete user</t>
+  </si>
+  <si>
+    <t>Change pass user</t>
+  </si>
+  <si>
+    <t>Export list user</t>
+  </si>
+  <si>
+    <t>LoginController</t>
+  </si>
+  <si>
+    <t>ListUserController</t>
+  </si>
+  <si>
+    <t>AddUserController</t>
+  </si>
+  <si>
+    <t>EditUserController</t>
+  </si>
+  <si>
+    <t>DeleteUserController</t>
+  </si>
+  <si>
+    <t>DetailUserController</t>
+  </si>
+  <si>
+    <t>View user</t>
+  </si>
+  <si>
+    <t>ExportFileController</t>
+  </si>
+  <si>
+    <t>EditPassController</t>
+  </si>
+  <si>
+    <t>ADM001 login -&gt; doPost ok -&gt; list user doGet</t>
+  </si>
+  <si>
+    <t>doPost ok -&gt; list user doGet gọi list user doPost</t>
+  </si>
+  <si>
+    <t>doPost</t>
+  </si>
+  <si>
+    <t>click btn add -&gt; add user doGet -&gt; click submit -&gt; add user doPost -&gt; ok gọi add confirm doGet -&gt; ok gọi add confirm doPost -&gt; ok gọi success controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click link id -&gt; detail user doGet </t>
+  </si>
+  <si>
+    <t>click link id -&gt; detail user doGet -&gt; click edit -&gt; add user doGet -&gt; click submit -&gt; add user doPost -&gt; ok gọi add confirm doGet -&gt; ok gọi add confirm doPost -&gt; ok gọi success controller</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +167,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -125,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -134,12 +231,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -186,7 +329,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -218,9 +361,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -252,6 +396,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -427,21 +572,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:C20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" customWidth="1"/>
+    <col min="8" max="8" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" ht="15.75">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,8 +599,17 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="F3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -460,8 +617,17 @@
         <v>3</v>
       </c>
       <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="F4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -469,8 +635,17 @@
         <v>4</v>
       </c>
       <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="F5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -478,8 +653,14 @@
         <v>5</v>
       </c>
       <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="F6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -487,8 +668,14 @@
         <v>6</v>
       </c>
       <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="F7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -496,8 +683,14 @@
         <v>7</v>
       </c>
       <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="F8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -505,8 +698,17 @@
         <v>13</v>
       </c>
       <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="F9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -514,8 +716,17 @@
         <v>8</v>
       </c>
       <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="F10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -523,8 +734,17 @@
         <v>9</v>
       </c>
       <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="F11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -532,8 +752,15 @@
         <v>10</v>
       </c>
       <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="F12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -541,8 +768,15 @@
         <v>11</v>
       </c>
       <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" ht="45.75" customHeight="1">
+      <c r="F13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -550,8 +784,15 @@
         <v>12</v>
       </c>
       <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="F14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -560,35 +801,35 @@
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -602,24 +843,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LA_PM/04_Output_12_NguyenThiMinhHang/03_BaiTapCuoiKhoa/ManageUser/Implement/Review code.xlsx
+++ b/LA_PM/04_Output_12_NguyenThiMinhHang/03_BaiTapCuoiKhoa/ManageUser/Implement/Review code.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\INFORMATION TECHNOLOGY\LUVINA\Other File\MyDocuments_xx18\LA_PM\04_Output_12_NguyenThiMinhHang\03_BaiTapCuoiKhoa\ManageUser\Implement\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="21015" windowHeight="9975"/>
   </bookViews>
@@ -59,9 +54,6 @@
     <t>response.setContentType</t>
   </si>
   <si>
-    <t>response.setHeader("Content-Disposition", "attachment; filename=\"" + fileName + "\"");</t>
-  </si>
-  <si>
     <t>session vs request vs cookies</t>
   </si>
   <si>
@@ -150,13 +142,16 @@
   </si>
   <si>
     <t>click link id -&gt; detail user doGet -&gt; click edit -&gt; add user doGet -&gt; click submit -&gt; add user doPost -&gt; ok gọi add confirm doGet -&gt; ok gọi add confirm doPost -&gt; ok gọi success controller</t>
+  </si>
+  <si>
+    <t>response.setHeader("Content-Disposition", "attachment; filename=" + fileName);</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,7 +324,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,10 +356,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -396,7 +390,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -572,14 +565,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.42578125" customWidth="1"/>
@@ -589,7 +582,7 @@
     <col min="8" max="8" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,16 +593,16 @@
         <v>2</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -618,16 +611,16 @@
       </c>
       <c r="C4" s="2"/>
       <c r="F4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -636,16 +629,16 @@
       </c>
       <c r="C5" s="2"/>
       <c r="F5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -654,13 +647,13 @@
       </c>
       <c r="C6" s="2"/>
       <c r="F6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -669,13 +662,13 @@
       </c>
       <c r="C7" s="2"/>
       <c r="F7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -684,31 +677,31 @@
       </c>
       <c r="C8" s="2"/>
       <c r="F8" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="45">
       <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2"/>
       <c r="F9" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -717,16 +710,16 @@
       </c>
       <c r="C10" s="2"/>
       <c r="F10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="60">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -735,16 +728,16 @@
       </c>
       <c r="C11" s="2"/>
       <c r="F11" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -753,14 +746,14 @@
       </c>
       <c r="C12" s="2"/>
       <c r="F12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -769,67 +762,67 @@
       </c>
       <c r="C13" s="2"/>
       <c r="F13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="45.75" customHeight="1">
       <c r="A14" s="2">
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2"/>
       <c r="F14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="2">
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="2">
         <v>13</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>14</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>15</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>16</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -843,24 +836,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LA_PM/04_Output_12_NguyenThiMinhHang/03_BaiTapCuoiKhoa/ManageUser/Implement/Review code.xlsx
+++ b/LA_PM/04_Output_12_NguyenThiMinhHang/03_BaiTapCuoiKhoa/ManageUser/Implement/Review code.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>STT</t>
   </si>
@@ -143,13 +143,24 @@
     <t>doPost</t>
   </si>
   <si>
-    <t>click btn add -&gt; add user doGet -&gt; click submit -&gt; add user doPost -&gt; ok gọi add confirm doGet -&gt; ok gọi add confirm doPost -&gt; ok gọi success controller</t>
-  </si>
-  <si>
     <t xml:space="preserve">click link id -&gt; detail user doGet </t>
   </si>
   <si>
-    <t>click link id -&gt; detail user doGet -&gt; click edit -&gt; add user doGet -&gt; click submit -&gt; add user doPost -&gt; ok gọi add confirm doGet -&gt; ok gọi add confirm doPost -&gt; ok gọi success controller</t>
+    <t>click button delete -&gt; delete user doGet</t>
+  </si>
+  <si>
+    <t>click button change pass -&gt; edit pass doGet. Click submit -&gt; edit pass doPost</t>
+  </si>
+  <si>
+    <t>click export -&gt; export doGet</t>
+  </si>
+  <si>
+    <t>+click btn add -&gt; add user doGet 
++click submit -&gt; add user doPost -&gt; ok gọi add confirm doGet -&gt; ok gọi add confirm doPost -&gt; ok gọi success controller</t>
+  </si>
+  <si>
+    <t>+ click link id -&gt; detail user doGet
++ click edit -&gt; add user doGet -&gt; click submit -&gt; add user doPost -&gt; ok gọi add confirm doGet -&gt; ok gọi add confirm doPost -&gt; ok gọi success controller</t>
   </si>
 </sst>
 </file>
@@ -222,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -231,14 +242,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -575,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,13 +607,13 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -617,13 +625,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -635,13 +643,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -653,10 +661,11 @@
         <v>5</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -668,10 +677,11 @@
         <v>6</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -683,14 +693,15 @@
         <v>7</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -698,14 +709,14 @@
         <v>13</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>40</v>
+      <c r="H9" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -716,14 +727,14 @@
         <v>8</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>41</v>
+      <c r="H10" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -734,14 +745,14 @@
         <v>9</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>42</v>
+      <c r="H11" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -752,15 +763,17 @@
         <v>10</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -768,13 +781,15 @@
         <v>11</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -784,13 +799,15 @@
         <v>12</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">

--- a/LA_PM/04_Output_12_NguyenThiMinhHang/03_BaiTapCuoiKhoa/ManageUser/Implement/Review code.xlsx
+++ b/LA_PM/04_Output_12_NguyenThiMinhHang/03_BaiTapCuoiKhoa/ManageUser/Implement/Review code.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\INFORMATION TECHNOLOGY\LUVINA\Other File\MyDocuments_xx18\LA_PM\04_Output_12_NguyenThiMinhHang\03_BaiTapCuoiKhoa\ManageUser\Implement\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="21015" windowHeight="9975"/>
   </bookViews>
@@ -120,9 +125,6 @@
     <t>View user</t>
   </si>
   <si>
-    <t>ExportFileController</t>
-  </si>
-  <si>
     <t>EditPassController</t>
   </si>
   <si>
@@ -145,13 +147,16 @@
   </si>
   <si>
     <t>response.setHeader("Content-Disposition", "attachment; filename=" + fileName);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExportFileController   </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,7 +329,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -356,9 +361,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -390,6 +396,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -565,14 +572,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.42578125" customWidth="1"/>
@@ -582,7 +589,7 @@
     <col min="8" max="8" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" ht="15.75">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -602,7 +609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -617,10 +624,10 @@
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -635,10 +642,10 @@
         <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -650,10 +657,10 @@
         <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -665,10 +672,10 @@
         <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -680,10 +687,10 @@
         <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -698,10 +705,10 @@
         <v>29</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -716,10 +723,10 @@
         <v>32</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="60">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -734,10 +741,10 @@
         <v>30</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -753,7 +760,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -765,27 +772,27 @@
         <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" ht="45.75" customHeight="1">
+    <row r="14" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2"/>
       <c r="F14" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -794,35 +801,35 @@
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -836,24 +843,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
